--- a/Document/ATV Flux Cleanner System IO List_20230907.xlsx
+++ b/Document/ATV Flux Cleanner System IO List_20230907.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amkor-my.sharepoint.com/personal/taegyung_kim_amkor_co_kr/Documents/1. K5 Project/1. Project/1. 진행 중/22. ATV Flux tool cleaner system development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\FluxTool_CleanerSystem_ATV\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{7760CE31-A9D4-43DB-ABB0-E3FCDA0BBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{547CF0EE-76BC-420E-8CC7-DCD5BCF7C02E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="20230907" sheetId="3" r:id="rId1"/>
     <sheet name="718_신규" sheetId="2" r:id="rId2"/>
     <sheet name="FCS-IO List" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="278">
   <si>
     <t>INPUT-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1016,13 +1015,25 @@
   </si>
   <si>
     <t>형광등1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Booster_Air_Sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_Booster_Air_Sol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_Booster_Air_Sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1446,7 +1457,7 @@
         <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FF4E8C-D3FB-4C47-8727-A7C292B9416E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57FF4E8C-D3FB-4C47-8727-A7C292B9416E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1517,7 @@
         <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC897A2-AC32-4A31-A843-732426C148B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEC897A2-AC32-4A31-A843-732426C148B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1582,7 @@
         <xdr:cNvPr id="2" name="화살표: 아래쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5410833F-C67B-4C81-B54F-9306CAC72046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5410833F-C67B-4C81-B54F-9306CAC72046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1642,7 @@
         <xdr:cNvPr id="3" name="화살표: 아래쪽 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2C2980-548A-4D6E-BF38-3B802297F6C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB2C2980-548A-4D6E-BF38-3B802297F6C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,14 +1983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBD104-5A09-41C9-8321-5F5927C8ED65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2049,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
@@ -2071,7 +2082,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>18</v>
@@ -2243,7 +2254,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>68</v>
@@ -2263,7 +2274,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>73</v>
@@ -2303,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>83</v>
@@ -2323,7 +2334,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>88</v>
@@ -2475,11 +2486,15 @@
       <c r="B27" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="F27" s="6" t="s">
         <v>141</v>
       </c>
@@ -2642,7 +2657,9 @@
       <c r="B35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>199</v>
       </c>
@@ -2722,7 +2739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3510,7 +3527,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="8" max="36" man="1"/>
     <brk id="11" max="36" man="1"/>
@@ -3520,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
